--- a/Clean Data/invoice data.xlsx
+++ b/Clean Data/invoice data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\The_Track_Fitness_Club\Clean Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D3773-14F8-46B6-9F4E-829B3DDA6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011D562-2938-4C11-805D-F0B04F02CCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{E1413C90-233E-4F9E-9E6C-023647541C2B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="51">
   <si>
     <t>Sr.no</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Year 2021 joining</t>
+  </si>
+  <si>
+    <t>The above chart is visualised via the filter for only three months for simplicity purposes</t>
   </si>
 </sst>
 </file>
@@ -1291,459 +1294,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#new clients every month'!$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mar joining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#new clients every month'!$M$5:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#new clients every month'!$P$5:$P$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D052-445A-B9F3-42A107E94653}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#new clients every month'!$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>April joining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#new clients every month'!$M$5:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#new clients every month'!$Q$5:$Q$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D052-445A-B9F3-42A107E94653}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#new clients every month'!$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>May joining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#new clients every month'!$M$5:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#new clients every month'!$R$5:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D052-445A-B9F3-42A107E94653}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -1888,453 +1438,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#new clients every month'!$T$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>July joining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#new clients every month'!$M$5:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#new clients every month'!$T$5:$T$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D052-445A-B9F3-42A107E94653}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#new clients every month'!$U$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Aug joining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#new clients every month'!$M$5:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#new clients every month'!$U$5:$U$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D052-445A-B9F3-42A107E94653}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#new clients every month'!$V$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Year 2021 joining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#new clients every month'!$M$5:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#new clients every month'!$V$5:$V$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D052-445A-B9F3-42A107E94653}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
@@ -2347,6 +1450,1030 @@
         <c:smooth val="0"/>
         <c:axId val="1312466047"/>
         <c:axId val="1312469375"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$P$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Mar joining</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$M$5:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$P$5:$P$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D052-445A-B9F3-42A107E94653}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$Q$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>April joining</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$M$5:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$Q$5:$Q$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="3">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-D052-445A-B9F3-42A107E94653}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$R$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>May joining</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$M$5:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$R$5:$R$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="4">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D052-445A-B9F3-42A107E94653}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$T$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>July joining</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$M$5:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$T$5:$T$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="6">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-D052-445A-B9F3-42A107E94653}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$U$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Aug joining</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$M$5:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$U$5:$U$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="7">
+                        <c:v>34</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-D052-445A-B9F3-42A107E94653}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$V$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Year 2021 joining</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$M$5:$M$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'#new clients every month'!$V$5:$V$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-D052-445A-B9F3-42A107E94653}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1312466047"/>
@@ -72837,10 +72964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0C4AD-B8DB-4580-A322-D03A45617560}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73489,6 +73616,11 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
